--- a/files/outros/intercredis_remessa_expressa.xlsx
+++ b/files/outros/intercredis_remessa_expressa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rogerio.rodrigues\Documents\workspace_python\rag_python\files\outros\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05AF0E14-23FE-4057-9664-C5303E15E9BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69A0ACBB-C4CE-4383-B40C-C68B2B77EDC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A1BD4D2C-EFAC-4373-83B2-8D3CF968CDFB}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="15375" windowHeight="7875" activeTab="1" xr2:uid="{A1BD4D2C-EFAC-4373-83B2-8D3CF968CDFB}"/>
   </bookViews>
   <sheets>
     <sheet name="Relatório Contábil" sheetId="1" r:id="rId1"/>
@@ -1665,6 +1665,59 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="20" fontId="16" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1677,59 +1730,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="20" fontId="16" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -2399,7 +2399,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{468BA112-AC62-44DF-9920-C0B0B0888C5D}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -2556,7 +2556,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD754040-677E-4A15-9DB6-7B0F2591A2EE}">
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -4080,7 +4080,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="33"/>
       <c r="B30" s="34" t="s">
         <v>97</v>
@@ -4160,7 +4160,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="33"/>
       <c r="B34" s="34" t="s">
         <v>101</v>
@@ -4254,7 +4254,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28B97478-BD0F-4EBB-9884-90B27BDD6D9C}">
   <dimension ref="A1:Y14"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B6" sqref="B6:Y6"/>
     </sheetView>
   </sheetViews>
@@ -4286,277 +4286,277 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A1" s="112"/>
-      <c r="B1" s="112"/>
-      <c r="C1" s="113" t="s">
+      <c r="A1" s="108"/>
+      <c r="B1" s="108"/>
+      <c r="C1" s="109" t="s">
         <v>105</v>
       </c>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
-      <c r="K1" s="114"/>
-      <c r="L1" s="114"/>
-      <c r="M1" s="114"/>
-      <c r="N1" s="114"/>
-      <c r="O1" s="114"/>
-      <c r="P1" s="114"/>
-      <c r="Q1" s="114"/>
-      <c r="R1" s="114"/>
-      <c r="S1" s="114"/>
-      <c r="T1" s="114"/>
-      <c r="U1" s="114"/>
-      <c r="V1" s="114"/>
-      <c r="W1" s="114"/>
-      <c r="X1" s="115" t="s">
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
+      <c r="M1" s="110"/>
+      <c r="N1" s="110"/>
+      <c r="O1" s="110"/>
+      <c r="P1" s="110"/>
+      <c r="Q1" s="110"/>
+      <c r="R1" s="110"/>
+      <c r="S1" s="110"/>
+      <c r="T1" s="110"/>
+      <c r="U1" s="110"/>
+      <c r="V1" s="110"/>
+      <c r="W1" s="110"/>
+      <c r="X1" s="111" t="s">
         <v>106</v>
       </c>
-      <c r="Y1" s="116"/>
+      <c r="Y1" s="112"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2" s="112"/>
-      <c r="B2" s="112"/>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="114"/>
-      <c r="G2" s="114"/>
-      <c r="H2" s="114"/>
-      <c r="I2" s="114"/>
-      <c r="J2" s="114"/>
-      <c r="K2" s="114"/>
-      <c r="L2" s="114"/>
-      <c r="M2" s="114"/>
-      <c r="N2" s="114"/>
-      <c r="O2" s="114"/>
-      <c r="P2" s="114"/>
-      <c r="Q2" s="114"/>
-      <c r="R2" s="114"/>
-      <c r="S2" s="114"/>
-      <c r="T2" s="114"/>
-      <c r="U2" s="114"/>
-      <c r="V2" s="114"/>
-      <c r="W2" s="114"/>
-      <c r="X2" s="117">
+      <c r="A2" s="108"/>
+      <c r="B2" s="108"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="110"/>
+      <c r="N2" s="110"/>
+      <c r="O2" s="110"/>
+      <c r="P2" s="110"/>
+      <c r="Q2" s="110"/>
+      <c r="R2" s="110"/>
+      <c r="S2" s="110"/>
+      <c r="T2" s="110"/>
+      <c r="U2" s="110"/>
+      <c r="V2" s="110"/>
+      <c r="W2" s="110"/>
+      <c r="X2" s="113">
         <v>44875.690347222146</v>
       </c>
-      <c r="Y2" s="118"/>
+      <c r="Y2" s="114"/>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A3" s="119" t="s">
+      <c r="A3" s="115" t="s">
         <v>107</v>
       </c>
-      <c r="B3" s="120"/>
-      <c r="C3" s="121" t="s">
+      <c r="B3" s="116"/>
+      <c r="C3" s="117" t="s">
         <v>108</v>
       </c>
-      <c r="D3" s="122"/>
-      <c r="E3" s="122"/>
-      <c r="F3" s="122"/>
-      <c r="G3" s="122"/>
-      <c r="H3" s="122"/>
-      <c r="I3" s="122"/>
-      <c r="J3" s="122"/>
-      <c r="K3" s="122"/>
-      <c r="L3" s="122"/>
-      <c r="M3" s="122"/>
-      <c r="N3" s="122"/>
-      <c r="O3" s="122"/>
-      <c r="P3" s="122"/>
-      <c r="Q3" s="122"/>
-      <c r="R3" s="122"/>
-      <c r="S3" s="122"/>
-      <c r="T3" s="122"/>
-      <c r="U3" s="122"/>
-      <c r="V3" s="122"/>
-      <c r="W3" s="122"/>
-      <c r="X3" s="123" t="s">
+      <c r="D3" s="118"/>
+      <c r="E3" s="118"/>
+      <c r="F3" s="118"/>
+      <c r="G3" s="118"/>
+      <c r="H3" s="118"/>
+      <c r="I3" s="118"/>
+      <c r="J3" s="118"/>
+      <c r="K3" s="118"/>
+      <c r="L3" s="118"/>
+      <c r="M3" s="118"/>
+      <c r="N3" s="118"/>
+      <c r="O3" s="118"/>
+      <c r="P3" s="118"/>
+      <c r="Q3" s="118"/>
+      <c r="R3" s="118"/>
+      <c r="S3" s="118"/>
+      <c r="T3" s="118"/>
+      <c r="U3" s="118"/>
+      <c r="V3" s="118"/>
+      <c r="W3" s="118"/>
+      <c r="X3" s="119" t="s">
         <v>109</v>
       </c>
-      <c r="Y3" s="124"/>
+      <c r="Y3" s="120"/>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A4" s="120"/>
-      <c r="B4" s="120"/>
-      <c r="C4" s="122"/>
-      <c r="D4" s="122"/>
-      <c r="E4" s="122"/>
-      <c r="F4" s="122"/>
-      <c r="G4" s="122"/>
-      <c r="H4" s="122"/>
-      <c r="I4" s="122"/>
-      <c r="J4" s="122"/>
-      <c r="K4" s="122"/>
-      <c r="L4" s="122"/>
-      <c r="M4" s="122"/>
-      <c r="N4" s="122"/>
-      <c r="O4" s="122"/>
-      <c r="P4" s="122"/>
-      <c r="Q4" s="122"/>
-      <c r="R4" s="122"/>
-      <c r="S4" s="122"/>
-      <c r="T4" s="122"/>
-      <c r="U4" s="122"/>
-      <c r="V4" s="122"/>
-      <c r="W4" s="122"/>
-      <c r="X4" s="125">
+      <c r="A4" s="116"/>
+      <c r="B4" s="116"/>
+      <c r="C4" s="118"/>
+      <c r="D4" s="118"/>
+      <c r="E4" s="118"/>
+      <c r="F4" s="118"/>
+      <c r="G4" s="118"/>
+      <c r="H4" s="118"/>
+      <c r="I4" s="118"/>
+      <c r="J4" s="118"/>
+      <c r="K4" s="118"/>
+      <c r="L4" s="118"/>
+      <c r="M4" s="118"/>
+      <c r="N4" s="118"/>
+      <c r="O4" s="118"/>
+      <c r="P4" s="118"/>
+      <c r="Q4" s="118"/>
+      <c r="R4" s="118"/>
+      <c r="S4" s="118"/>
+      <c r="T4" s="118"/>
+      <c r="U4" s="118"/>
+      <c r="V4" s="118"/>
+      <c r="W4" s="118"/>
+      <c r="X4" s="121">
         <v>44875.690347222146</v>
       </c>
-      <c r="Y4" s="126"/>
+      <c r="Y4" s="122"/>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A5" s="108" t="s">
+      <c r="A5" s="123" t="s">
         <v>110</v>
       </c>
-      <c r="B5" s="109"/>
-      <c r="C5" s="109"/>
-      <c r="D5" s="109"/>
-      <c r="E5" s="109"/>
-      <c r="F5" s="109"/>
-      <c r="G5" s="109"/>
-      <c r="H5" s="109"/>
-      <c r="I5" s="109"/>
-      <c r="J5" s="109"/>
-      <c r="K5" s="109"/>
-      <c r="L5" s="109"/>
-      <c r="M5" s="109"/>
-      <c r="N5" s="109"/>
-      <c r="O5" s="109"/>
-      <c r="P5" s="109"/>
-      <c r="Q5" s="109"/>
-      <c r="R5" s="109"/>
-      <c r="S5" s="109"/>
-      <c r="T5" s="109"/>
-      <c r="U5" s="109"/>
-      <c r="V5" s="109"/>
-      <c r="W5" s="109"/>
-      <c r="X5" s="109"/>
-      <c r="Y5" s="109"/>
+      <c r="B5" s="124"/>
+      <c r="C5" s="124"/>
+      <c r="D5" s="124"/>
+      <c r="E5" s="124"/>
+      <c r="F5" s="124"/>
+      <c r="G5" s="124"/>
+      <c r="H5" s="124"/>
+      <c r="I5" s="124"/>
+      <c r="J5" s="124"/>
+      <c r="K5" s="124"/>
+      <c r="L5" s="124"/>
+      <c r="M5" s="124"/>
+      <c r="N5" s="124"/>
+      <c r="O5" s="124"/>
+      <c r="P5" s="124"/>
+      <c r="Q5" s="124"/>
+      <c r="R5" s="124"/>
+      <c r="S5" s="124"/>
+      <c r="T5" s="124"/>
+      <c r="U5" s="124"/>
+      <c r="V5" s="124"/>
+      <c r="W5" s="124"/>
+      <c r="X5" s="124"/>
+      <c r="Y5" s="124"/>
     </row>
     <row r="6" spans="1:25" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A6" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="B6" s="110" t="s">
+      <c r="B6" s="125" t="s">
         <v>112</v>
       </c>
-      <c r="C6" s="111"/>
-      <c r="D6" s="111"/>
-      <c r="E6" s="111"/>
-      <c r="F6" s="111"/>
-      <c r="G6" s="111"/>
-      <c r="H6" s="111"/>
-      <c r="I6" s="111"/>
-      <c r="J6" s="111"/>
-      <c r="K6" s="111"/>
-      <c r="L6" s="111"/>
-      <c r="M6" s="111"/>
-      <c r="N6" s="111"/>
-      <c r="O6" s="111"/>
-      <c r="P6" s="111"/>
-      <c r="Q6" s="111"/>
-      <c r="R6" s="111"/>
-      <c r="S6" s="111"/>
-      <c r="T6" s="111"/>
-      <c r="U6" s="111"/>
-      <c r="V6" s="111"/>
-      <c r="W6" s="111"/>
-      <c r="X6" s="111"/>
-      <c r="Y6" s="111"/>
+      <c r="C6" s="126"/>
+      <c r="D6" s="126"/>
+      <c r="E6" s="126"/>
+      <c r="F6" s="126"/>
+      <c r="G6" s="126"/>
+      <c r="H6" s="126"/>
+      <c r="I6" s="126"/>
+      <c r="J6" s="126"/>
+      <c r="K6" s="126"/>
+      <c r="L6" s="126"/>
+      <c r="M6" s="126"/>
+      <c r="N6" s="126"/>
+      <c r="O6" s="126"/>
+      <c r="P6" s="126"/>
+      <c r="Q6" s="126"/>
+      <c r="R6" s="126"/>
+      <c r="S6" s="126"/>
+      <c r="T6" s="126"/>
+      <c r="U6" s="126"/>
+      <c r="V6" s="126"/>
+      <c r="W6" s="126"/>
+      <c r="X6" s="126"/>
+      <c r="Y6" s="126"/>
     </row>
     <row r="7" spans="1:25" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A7" s="52" t="s">
         <v>113</v>
       </c>
-      <c r="B7" s="110" t="s">
+      <c r="B7" s="125" t="s">
         <v>114</v>
       </c>
-      <c r="C7" s="111"/>
-      <c r="D7" s="111"/>
-      <c r="E7" s="111"/>
-      <c r="F7" s="111"/>
-      <c r="G7" s="111"/>
-      <c r="H7" s="111"/>
-      <c r="I7" s="111"/>
-      <c r="J7" s="111"/>
-      <c r="K7" s="111"/>
-      <c r="L7" s="111"/>
-      <c r="M7" s="111"/>
-      <c r="N7" s="111"/>
-      <c r="O7" s="111"/>
-      <c r="P7" s="111"/>
-      <c r="Q7" s="111"/>
-      <c r="R7" s="111"/>
-      <c r="S7" s="111"/>
-      <c r="T7" s="111"/>
-      <c r="U7" s="111"/>
-      <c r="V7" s="111"/>
-      <c r="W7" s="111"/>
-      <c r="X7" s="111"/>
-      <c r="Y7" s="111"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="126"/>
+      <c r="E7" s="126"/>
+      <c r="F7" s="126"/>
+      <c r="G7" s="126"/>
+      <c r="H7" s="126"/>
+      <c r="I7" s="126"/>
+      <c r="J7" s="126"/>
+      <c r="K7" s="126"/>
+      <c r="L7" s="126"/>
+      <c r="M7" s="126"/>
+      <c r="N7" s="126"/>
+      <c r="O7" s="126"/>
+      <c r="P7" s="126"/>
+      <c r="Q7" s="126"/>
+      <c r="R7" s="126"/>
+      <c r="S7" s="126"/>
+      <c r="T7" s="126"/>
+      <c r="U7" s="126"/>
+      <c r="V7" s="126"/>
+      <c r="W7" s="126"/>
+      <c r="X7" s="126"/>
+      <c r="Y7" s="126"/>
     </row>
     <row r="8" spans="1:25" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A8" s="52" t="s">
         <v>115</v>
       </c>
-      <c r="B8" s="110" t="s">
+      <c r="B8" s="125" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="111"/>
-      <c r="D8" s="111"/>
-      <c r="E8" s="111"/>
-      <c r="F8" s="111"/>
-      <c r="G8" s="111"/>
-      <c r="H8" s="111"/>
-      <c r="I8" s="111"/>
-      <c r="J8" s="111"/>
-      <c r="K8" s="111"/>
-      <c r="L8" s="111"/>
-      <c r="M8" s="111"/>
-      <c r="N8" s="111"/>
-      <c r="O8" s="111"/>
-      <c r="P8" s="111"/>
-      <c r="Q8" s="111"/>
-      <c r="R8" s="111"/>
-      <c r="S8" s="111"/>
-      <c r="T8" s="111"/>
-      <c r="U8" s="111"/>
-      <c r="V8" s="111"/>
-      <c r="W8" s="111"/>
-      <c r="X8" s="111"/>
-      <c r="Y8" s="111"/>
+      <c r="C8" s="126"/>
+      <c r="D8" s="126"/>
+      <c r="E8" s="126"/>
+      <c r="F8" s="126"/>
+      <c r="G8" s="126"/>
+      <c r="H8" s="126"/>
+      <c r="I8" s="126"/>
+      <c r="J8" s="126"/>
+      <c r="K8" s="126"/>
+      <c r="L8" s="126"/>
+      <c r="M8" s="126"/>
+      <c r="N8" s="126"/>
+      <c r="O8" s="126"/>
+      <c r="P8" s="126"/>
+      <c r="Q8" s="126"/>
+      <c r="R8" s="126"/>
+      <c r="S8" s="126"/>
+      <c r="T8" s="126"/>
+      <c r="U8" s="126"/>
+      <c r="V8" s="126"/>
+      <c r="W8" s="126"/>
+      <c r="X8" s="126"/>
+      <c r="Y8" s="126"/>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="52" t="s">
         <v>116</v>
       </c>
-      <c r="B9" s="110"/>
-      <c r="C9" s="111"/>
-      <c r="D9" s="111"/>
-      <c r="E9" s="111"/>
-      <c r="F9" s="111"/>
-      <c r="G9" s="111"/>
-      <c r="H9" s="111"/>
-      <c r="I9" s="111"/>
-      <c r="J9" s="111"/>
-      <c r="K9" s="111"/>
-      <c r="L9" s="111"/>
-      <c r="M9" s="111"/>
-      <c r="N9" s="111"/>
-      <c r="O9" s="111"/>
-      <c r="P9" s="111"/>
-      <c r="Q9" s="111"/>
-      <c r="R9" s="111"/>
-      <c r="S9" s="111"/>
-      <c r="T9" s="111"/>
-      <c r="U9" s="111"/>
-      <c r="V9" s="111"/>
-      <c r="W9" s="111"/>
-      <c r="X9" s="111"/>
-      <c r="Y9" s="111"/>
+      <c r="B9" s="125"/>
+      <c r="C9" s="126"/>
+      <c r="D9" s="126"/>
+      <c r="E9" s="126"/>
+      <c r="F9" s="126"/>
+      <c r="G9" s="126"/>
+      <c r="H9" s="126"/>
+      <c r="I9" s="126"/>
+      <c r="J9" s="126"/>
+      <c r="K9" s="126"/>
+      <c r="L9" s="126"/>
+      <c r="M9" s="126"/>
+      <c r="N9" s="126"/>
+      <c r="O9" s="126"/>
+      <c r="P9" s="126"/>
+      <c r="Q9" s="126"/>
+      <c r="R9" s="126"/>
+      <c r="S9" s="126"/>
+      <c r="T9" s="126"/>
+      <c r="U9" s="126"/>
+      <c r="V9" s="126"/>
+      <c r="W9" s="126"/>
+      <c r="X9" s="126"/>
+      <c r="Y9" s="126"/>
     </row>
     <row r="10" spans="1:25" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A10" s="53" t="s">
@@ -4945,6 +4945,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A5:Y5"/>
+    <mergeCell ref="B6:Y6"/>
+    <mergeCell ref="B7:Y7"/>
+    <mergeCell ref="B8:Y8"/>
+    <mergeCell ref="B9:Y9"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:W2"/>
     <mergeCell ref="X1:Y1"/>
@@ -4953,11 +4958,6 @@
     <mergeCell ref="C3:W4"/>
     <mergeCell ref="X3:Y3"/>
     <mergeCell ref="X4:Y4"/>
-    <mergeCell ref="A5:Y5"/>
-    <mergeCell ref="B6:Y6"/>
-    <mergeCell ref="B7:Y7"/>
-    <mergeCell ref="B8:Y8"/>
-    <mergeCell ref="B9:Y9"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
